--- a/Team-Data/2012-13/11-1-2012-13.xlsx
+++ b/Team-Data/2012-13/11-1-2012-13.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -358,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BF24"/>
+  <dimension ref="A1:BF23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -744,7 +811,7 @@
         <v>-13</v>
       </c>
       <c r="AD2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE2" t="n">
         <v>13</v>
@@ -762,16 +829,16 @@
         <v>3</v>
       </c>
       <c r="AJ2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK2" t="n">
         <v>2</v>
       </c>
       <c r="AL2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AM2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AN2" t="n">
         <v>2</v>
@@ -783,43 +850,43 @@
         <v>7</v>
       </c>
       <c r="AQ2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AR2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AS2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AT2" t="n">
         <v>15</v>
       </c>
       <c r="AU2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>22</v>
+      </c>
+      <c r="AY2" t="n">
         <v>7</v>
       </c>
-      <c r="AV2" t="n">
-        <v>9</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>22</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>8</v>
-      </c>
       <c r="AZ2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BB2" t="n">
         <v>4</v>
       </c>
       <c r="BC2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>11-1-2012-13</t>
+          <t>2012-11-01</t>
         </is>
       </c>
     </row>
@@ -926,10 +993,10 @@
         <v>6</v>
       </c>
       <c r="AD3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF3" t="n">
         <v>1</v>
@@ -950,13 +1017,13 @@
         <v>14</v>
       </c>
       <c r="AL3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM3" t="n">
         <v>22</v>
       </c>
-      <c r="AM3" t="n">
-        <v>23</v>
-      </c>
       <c r="AN3" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO3" t="n">
         <v>3</v>
@@ -965,16 +1032,16 @@
         <v>2</v>
       </c>
       <c r="AQ3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR3" t="n">
         <v>9</v>
       </c>
       <c r="AS3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AT3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AU3" t="n">
         <v>13</v>
@@ -989,7 +1056,7 @@
         <v>3</v>
       </c>
       <c r="AY3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ3" t="n">
         <v>5</v>
@@ -998,7 +1065,7 @@
         <v>2</v>
       </c>
       <c r="BB3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BC3" t="n">
         <v>8</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>11-1-2012-13</t>
+          <t>2012-11-01</t>
         </is>
       </c>
     </row>
@@ -1108,10 +1175,10 @@
         <v>10</v>
       </c>
       <c r="AD4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF4" t="n">
         <v>1</v>
@@ -1138,7 +1205,7 @@
         <v>5</v>
       </c>
       <c r="AN4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO4" t="n">
         <v>18</v>
@@ -1147,7 +1214,7 @@
         <v>14</v>
       </c>
       <c r="AQ4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR4" t="n">
         <v>2</v>
@@ -1159,10 +1226,10 @@
         <v>2</v>
       </c>
       <c r="AU4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AW4" t="n">
         <v>18</v>
@@ -1171,17 +1238,17 @@
         <v>11</v>
       </c>
       <c r="AY4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AZ4" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>17</v>
+      </c>
+      <c r="BB4" t="n">
         <v>12</v>
       </c>
-      <c r="BA4" t="n">
-        <v>18</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>11</v>
-      </c>
       <c r="BC4" t="n">
         <v>3</v>
       </c>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>11-1-2012-13</t>
+          <t>2012-11-01</t>
         </is>
       </c>
     </row>
@@ -1293,7 +1360,7 @@
         <v>1</v>
       </c>
       <c r="AE5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF5" t="n">
         <v>12</v>
@@ -1329,16 +1396,16 @@
         <v>14</v>
       </c>
       <c r="AQ5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR5" t="n">
         <v>19</v>
       </c>
       <c r="AS5" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AT5" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AU5" t="n">
         <v>13</v>
@@ -1353,19 +1420,19 @@
         <v>11</v>
       </c>
       <c r="AY5" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BA5" t="n">
         <v>7</v>
       </c>
       <c r="BB5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BC5" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>11-1-2012-13</t>
+          <t>2012-11-01</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>-9</v>
       </c>
       <c r="AD6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE6" t="n">
         <v>13</v>
@@ -1493,25 +1560,25 @@
         <v>4</v>
       </c>
       <c r="AK6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL6" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AM6" t="n">
         <v>9</v>
       </c>
       <c r="AN6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO6" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AP6" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AQ6" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AR6" t="n">
         <v>6</v>
@@ -1526,7 +1593,7 @@
         <v>16</v>
       </c>
       <c r="AV6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW6" t="n">
         <v>12</v>
@@ -1535,19 +1602,19 @@
         <v>11</v>
       </c>
       <c r="AY6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA6" t="n">
         <v>22</v>
       </c>
-      <c r="AZ6" t="n">
-        <v>14</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>23</v>
-      </c>
       <c r="BB6" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BC6" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>11-1-2012-13</t>
+          <t>2012-11-01</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>-9</v>
       </c>
       <c r="AD7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE7" t="n">
         <v>13</v>
@@ -1678,13 +1745,13 @@
         <v>10</v>
       </c>
       <c r="AL7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AM7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AN7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO7" t="n">
         <v>8</v>
@@ -1693,28 +1760,28 @@
         <v>9</v>
       </c>
       <c r="AQ7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AS7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AU7" t="n">
         <v>13</v>
       </c>
       <c r="AV7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AW7" t="n">
         <v>3</v>
       </c>
       <c r="AX7" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AY7" t="n">
         <v>3</v>
@@ -1726,10 +1793,10 @@
         <v>6</v>
       </c>
       <c r="BB7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BC7" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>11-1-2012-13</t>
+          <t>2012-11-01</t>
         </is>
       </c>
     </row>
@@ -1836,10 +1903,10 @@
         <v>2</v>
       </c>
       <c r="AD8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF8" t="n">
         <v>1</v>
@@ -1860,7 +1927,7 @@
         <v>17</v>
       </c>
       <c r="AL8" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AM8" t="n">
         <v>10</v>
@@ -1872,16 +1939,16 @@
         <v>16</v>
       </c>
       <c r="AP8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ8" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR8" t="n">
         <v>4</v>
       </c>
       <c r="AS8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AT8" t="n">
         <v>4</v>
@@ -1896,10 +1963,10 @@
         <v>12</v>
       </c>
       <c r="AX8" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AY8" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ8" t="n">
         <v>7</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>11-1-2012-13</t>
+          <t>2012-11-01</t>
         </is>
       </c>
     </row>
@@ -2018,10 +2085,10 @@
         <v>9</v>
       </c>
       <c r="AD9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF9" t="n">
         <v>1</v>
@@ -2048,46 +2115,46 @@
         <v>2</v>
       </c>
       <c r="AN9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR9" t="n">
         <v>11</v>
       </c>
       <c r="AS9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AT9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AU9" t="n">
         <v>1</v>
       </c>
       <c r="AV9" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AW9" t="n">
         <v>3</v>
       </c>
       <c r="AX9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AY9" t="n">
         <v>5</v>
       </c>
       <c r="AZ9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BA9" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BB9" t="n">
         <v>5</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>11-1-2012-13</t>
+          <t>2012-11-01</t>
         </is>
       </c>
     </row>
@@ -2200,10 +2267,10 @@
         <v>2</v>
       </c>
       <c r="AD10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF10" t="n">
         <v>1</v>
@@ -2215,31 +2282,31 @@
         <v>1</v>
       </c>
       <c r="AI10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ10" t="n">
         <v>19</v>
       </c>
       <c r="AK10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AM10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AN10" t="n">
         <v>3</v>
       </c>
       <c r="AO10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AP10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AQ10" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AR10" t="n">
         <v>17</v>
@@ -2248,28 +2315,28 @@
         <v>3</v>
       </c>
       <c r="AT10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AU10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AX10" t="n">
         <v>3</v>
       </c>
       <c r="AY10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ10" t="n">
         <v>3</v>
       </c>
       <c r="BA10" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BB10" t="n">
         <v>15</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>11-1-2012-13</t>
+          <t>2012-11-01</t>
         </is>
       </c>
     </row>
@@ -2382,10 +2449,10 @@
         <v>9</v>
       </c>
       <c r="AD11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF11" t="n">
         <v>1</v>
@@ -2400,19 +2467,19 @@
         <v>5</v>
       </c>
       <c r="AJ11" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK11" t="n">
         <v>3</v>
       </c>
       <c r="AL11" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AM11" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AN11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO11" t="n">
         <v>8</v>
@@ -2421,22 +2488,22 @@
         <v>6</v>
       </c>
       <c r="AQ11" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR11" t="n">
         <v>20</v>
       </c>
       <c r="AS11" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AT11" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AU11" t="n">
         <v>4</v>
       </c>
       <c r="AV11" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW11" t="n">
         <v>3</v>
@@ -2448,7 +2515,7 @@
         <v>5</v>
       </c>
       <c r="AZ11" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA11" t="n">
         <v>5</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>11-1-2012-13</t>
+          <t>2012-11-01</t>
         </is>
       </c>
     </row>
@@ -2570,7 +2637,7 @@
         <v>13</v>
       </c>
       <c r="AF12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG12" t="n">
         <v>13</v>
@@ -2579,10 +2646,10 @@
         <v>1</v>
       </c>
       <c r="AI12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK12" t="n">
         <v>5</v>
@@ -2591,10 +2658,10 @@
         <v>14</v>
       </c>
       <c r="AM12" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AN12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO12" t="n">
         <v>10</v>
@@ -2603,43 +2670,43 @@
         <v>4</v>
       </c>
       <c r="AQ12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AR12" t="n">
         <v>7</v>
       </c>
       <c r="AS12" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AT12" t="n">
+        <v>8</v>
+      </c>
+      <c r="AU12" t="n">
         <v>9</v>
       </c>
-      <c r="AU12" t="n">
-        <v>10</v>
-      </c>
       <c r="AV12" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AW12" t="n">
         <v>20</v>
       </c>
       <c r="AX12" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AY12" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB12" t="n">
         <v>8</v>
       </c>
-      <c r="AZ12" t="n">
-        <v>18</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>10</v>
-      </c>
-      <c r="BB12" t="n">
-        <v>7</v>
-      </c>
       <c r="BC12" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>11-1-2012-13</t>
+          <t>2012-11-01</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>-9</v>
       </c>
       <c r="AD13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE13" t="n">
         <v>13</v>
@@ -2770,13 +2837,13 @@
         <v>17</v>
       </c>
       <c r="AL13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>18</v>
+      </c>
+      <c r="AN13" t="n">
         <v>22</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>19</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>23</v>
       </c>
       <c r="AO13" t="n">
         <v>4</v>
@@ -2785,34 +2852,34 @@
         <v>5</v>
       </c>
       <c r="AQ13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AR13" t="n">
         <v>4</v>
       </c>
       <c r="AS13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AT13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AU13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AW13" t="n">
         <v>1</v>
       </c>
       <c r="AX13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AY13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AZ13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BA13" t="n">
         <v>4</v>
@@ -2821,7 +2888,7 @@
         <v>14</v>
       </c>
       <c r="BC13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>11-1-2012-13</t>
+          <t>2012-11-01</t>
         </is>
       </c>
     </row>
@@ -2928,10 +2995,10 @@
         <v>13</v>
       </c>
       <c r="AD14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF14" t="n">
         <v>1</v>
@@ -2955,7 +3022,7 @@
         <v>3</v>
       </c>
       <c r="AM14" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AN14" t="n">
         <v>1</v>
@@ -2967,16 +3034,16 @@
         <v>3</v>
       </c>
       <c r="AQ14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AR14" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS14" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AT14" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AU14" t="n">
         <v>4</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>11-1-2012-13</t>
+          <t>2012-11-01</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>-4</v>
       </c>
       <c r="AD15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE15" t="n">
         <v>13</v>
@@ -3134,19 +3201,19 @@
         <v>11</v>
       </c>
       <c r="AL15" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AM15" t="n">
         <v>10</v>
       </c>
       <c r="AN15" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO15" t="n">
         <v>7</v>
       </c>
       <c r="AP15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ15" t="n">
         <v>1</v>
@@ -3155,25 +3222,25 @@
         <v>17</v>
       </c>
       <c r="AS15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AT15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AU15" t="n">
         <v>2</v>
       </c>
       <c r="AV15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW15" t="n">
         <v>18</v>
       </c>
       <c r="AX15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY15" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ15" t="n">
         <v>7</v>
@@ -3182,10 +3249,10 @@
         <v>12</v>
       </c>
       <c r="BB15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BC15" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>11-1-2012-13</t>
+          <t>2012-11-01</t>
         </is>
       </c>
     </row>
@@ -3206,138 +3273,138 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1610612760</v>
+        <v>1610612755</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Oklahoma City Thunder</t>
+          <t>Philadelphia 76ers</t>
         </is>
       </c>
       <c r="D16" t="n">
         <v>1</v>
       </c>
       <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="n">
         <v>0</v>
       </c>
-      <c r="F16" t="n">
-        <v>1</v>
-      </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
         <v>48</v>
       </c>
       <c r="I16" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J16" t="n">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="K16" t="n">
-        <v>0.377</v>
+        <v>0.353</v>
       </c>
       <c r="L16" t="n">
         <v>7</v>
       </c>
       <c r="M16" t="n">
+        <v>25</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="O16" t="n">
         <v>17</v>
       </c>
-      <c r="N16" t="n">
-        <v>0.412</v>
-      </c>
-      <c r="O16" t="n">
-        <v>19</v>
-      </c>
       <c r="P16" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.826</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="R16" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="S16" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="T16" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="U16" t="n">
         <v>18</v>
       </c>
       <c r="V16" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="W16" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="X16" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y16" t="n">
         <v>5</v>
       </c>
-      <c r="Y16" t="n">
-        <v>4</v>
-      </c>
       <c r="Z16" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="AA16" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AB16" t="n">
         <v>84</v>
       </c>
       <c r="AC16" t="n">
-        <v>-2</v>
+        <v>9</v>
       </c>
       <c r="AD16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE16" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="AF16" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="AG16" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="AH16" t="n">
         <v>1</v>
       </c>
       <c r="AI16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ16" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="AK16" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AL16" t="n">
         <v>6</v>
       </c>
       <c r="AM16" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AN16" t="n">
+        <v>16</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ16" t="n">
         <v>7</v>
       </c>
-      <c r="AO16" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>10</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>3</v>
-      </c>
       <c r="AR16" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AS16" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AT16" t="n">
         <v>5</v>
@@ -3346,40 +3413,40 @@
         <v>19</v>
       </c>
       <c r="AV16" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AW16" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="AX16" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA16" t="n">
         <v>11</v>
-      </c>
-      <c r="AY16" t="n">
-        <v>5</v>
-      </c>
-      <c r="AZ16" t="n">
-        <v>7</v>
-      </c>
-      <c r="BA16" t="n">
-        <v>12</v>
       </c>
       <c r="BB16" t="n">
         <v>20</v>
       </c>
       <c r="BC16" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
       </c>
       <c r="BE16" t="inlineStr">
         <is>
-          <t>Oklahoma City Thunder</t>
+          <t>Philadelphia 76ers</t>
         </is>
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>11-1-2012-13</t>
+          <t>2012-11-01</t>
         </is>
       </c>
     </row>
@@ -3388,180 +3455,180 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1610612755</v>
+        <v>1610612756</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Philadelphia 76ers</t>
+          <t>Phoenix Suns</t>
         </is>
       </c>
       <c r="D17" t="n">
         <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" t="n">
         <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>1</v>
       </c>
       <c r="H17" t="n">
         <v>48</v>
       </c>
       <c r="I17" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J17" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="K17" t="n">
-        <v>0.353</v>
+        <v>0.4</v>
       </c>
       <c r="L17" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M17" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N17" t="n">
-        <v>0.28</v>
+        <v>0.19</v>
       </c>
       <c r="O17" t="n">
         <v>17</v>
       </c>
       <c r="P17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.773</v>
       </c>
       <c r="R17" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="S17" t="n">
         <v>33</v>
       </c>
       <c r="T17" t="n">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="U17" t="n">
+        <v>16</v>
+      </c>
+      <c r="V17" t="n">
         <v>18</v>
       </c>
-      <c r="V17" t="n">
+      <c r="W17" t="n">
+        <v>10</v>
+      </c>
+      <c r="X17" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>20</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>85</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>20</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK17" t="n">
         <v>16</v>
       </c>
-      <c r="W17" t="n">
-        <v>13</v>
-      </c>
-      <c r="X17" t="n">
+      <c r="AL17" t="n">
+        <v>18</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AO17" t="n">
         <v>11</v>
       </c>
-      <c r="Y17" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z17" t="n">
+      <c r="AP17" t="n">
         <v>14</v>
       </c>
-      <c r="AA17" t="n">
-        <v>22</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>84</v>
-      </c>
-      <c r="AC17" t="n">
+      <c r="AQ17" t="n">
         <v>9</v>
       </c>
-      <c r="AD17" t="n">
-        <v>4</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>2</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>22</v>
-      </c>
-      <c r="AJ17" t="n">
+      <c r="AR17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AS17" t="n">
         <v>7</v>
       </c>
-      <c r="AK17" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>6</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>3</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>17</v>
-      </c>
-      <c r="AO17" t="n">
+      <c r="AT17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AV17" t="n">
         <v>12</v>
       </c>
-      <c r="AP17" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ17" t="n">
+      <c r="AW17" t="n">
         <v>8</v>
       </c>
-      <c r="AR17" t="n">
-        <v>9</v>
-      </c>
-      <c r="AS17" t="n">
-        <v>8</v>
-      </c>
-      <c r="AT17" t="n">
-        <v>6</v>
-      </c>
-      <c r="AU17" t="n">
+      <c r="AX17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>3</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>14</v>
+      </c>
+      <c r="BB17" t="n">
         <v>19</v>
       </c>
-      <c r="AV17" t="n">
-        <v>9</v>
-      </c>
-      <c r="AW17" t="n">
-        <v>2</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>2</v>
-      </c>
-      <c r="AY17" t="n">
-        <v>8</v>
-      </c>
-      <c r="AZ17" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA17" t="n">
-        <v>11</v>
-      </c>
-      <c r="BB17" t="n">
-        <v>20</v>
-      </c>
       <c r="BC17" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
       </c>
       <c r="BE17" t="inlineStr">
         <is>
-          <t>Philadelphia 76ers</t>
+          <t>Phoenix Suns</t>
         </is>
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>11-1-2012-13</t>
+          <t>2012-11-01</t>
         </is>
       </c>
     </row>
@@ -3570,180 +3637,180 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1610612756</v>
+        <v>1610612757</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Phoenix Suns</t>
+          <t>Portland Trail Blazers</t>
         </is>
       </c>
       <c r="D18" t="n">
         <v>1</v>
       </c>
       <c r="E18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" t="n">
         <v>0</v>
       </c>
-      <c r="F18" t="n">
-        <v>1</v>
-      </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
         <v>48</v>
       </c>
       <c r="I18" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="J18" t="n">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K18" t="n">
-        <v>0.4</v>
+        <v>0.506</v>
       </c>
       <c r="L18" t="n">
+        <v>9</v>
+      </c>
+      <c r="M18" t="n">
+        <v>20</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="O18" t="n">
+        <v>23</v>
+      </c>
+      <c r="P18" t="n">
+        <v>28</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.821</v>
+      </c>
+      <c r="R18" t="n">
+        <v>10</v>
+      </c>
+      <c r="S18" t="n">
+        <v>20</v>
+      </c>
+      <c r="T18" t="n">
+        <v>30</v>
+      </c>
+      <c r="U18" t="n">
+        <v>19</v>
+      </c>
+      <c r="V18" t="n">
+        <v>12</v>
+      </c>
+      <c r="W18" t="n">
+        <v>10</v>
+      </c>
+      <c r="X18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>116</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK18" t="n">
         <v>4</v>
       </c>
-      <c r="M18" t="n">
-        <v>21</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="O18" t="n">
-        <v>17</v>
-      </c>
-      <c r="P18" t="n">
+      <c r="AL18" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>5</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>7</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>14</v>
+      </c>
+      <c r="AS18" t="n">
         <v>22</v>
       </c>
-      <c r="Q18" t="n">
-        <v>0.773</v>
-      </c>
-      <c r="R18" t="n">
-        <v>11</v>
-      </c>
-      <c r="S18" t="n">
-        <v>33</v>
-      </c>
-      <c r="T18" t="n">
-        <v>44</v>
-      </c>
-      <c r="U18" t="n">
+      <c r="AT18" t="n">
+        <v>22</v>
+      </c>
+      <c r="AU18" t="n">
         <v>16</v>
       </c>
-      <c r="V18" t="n">
-        <v>18</v>
-      </c>
-      <c r="W18" t="n">
-        <v>10</v>
-      </c>
-      <c r="X18" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>20</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>85</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>-2</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>4</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>20</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>16</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>19</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>4</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>22</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>14</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>10</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>13</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>8</v>
-      </c>
-      <c r="AT18" t="n">
-        <v>11</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>22</v>
-      </c>
       <c r="AV18" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="AW18" t="n">
         <v>8</v>
       </c>
       <c r="AX18" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="AY18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AZ18" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="BA18" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="BB18" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="BC18" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
       </c>
       <c r="BE18" t="inlineStr">
         <is>
-          <t>Phoenix Suns</t>
+          <t>Portland Trail Blazers</t>
         </is>
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>11-1-2012-13</t>
+          <t>2012-11-01</t>
         </is>
       </c>
     </row>
@@ -3752,69 +3819,69 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1610612757</v>
+        <v>1610612758</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Portland Trail Blazers</t>
+          <t>Sacramento Kings</t>
         </is>
       </c>
       <c r="D19" t="n">
         <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" t="n">
         <v>0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>1</v>
       </c>
       <c r="H19" t="n">
         <v>48</v>
       </c>
       <c r="I19" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="J19" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K19" t="n">
-        <v>0.506</v>
+        <v>0.405</v>
       </c>
       <c r="L19" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="M19" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N19" t="n">
-        <v>0.45</v>
+        <v>0.353</v>
       </c>
       <c r="O19" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="P19" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.821</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="R19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="S19" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="T19" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="U19" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="V19" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="W19" t="n">
         <v>10</v>
@@ -3823,76 +3890,76 @@
         <v>5</v>
       </c>
       <c r="Y19" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="Z19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>87</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>-6</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>14</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>8</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP19" t="n">
         <v>20</v>
       </c>
-      <c r="AA19" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>116</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>4</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>2</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>2</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>4</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>2</v>
-      </c>
-      <c r="AM19" t="n">
+      <c r="AQ19" t="n">
         <v>5</v>
       </c>
-      <c r="AN19" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>5</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>7</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>4</v>
-      </c>
       <c r="AR19" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AS19" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AT19" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="AU19" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AV19" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="AW19" t="n">
         <v>8</v>
@@ -3901,31 +3968,31 @@
         <v>11</v>
       </c>
       <c r="AY19" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="AZ19" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="BA19" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="BB19" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="BC19" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
       </c>
       <c r="BE19" t="inlineStr">
         <is>
-          <t>Portland Trail Blazers</t>
+          <t>Sacramento Kings</t>
         </is>
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>11-1-2012-13</t>
+          <t>2012-11-01</t>
         </is>
       </c>
     </row>
@@ -3934,180 +4001,180 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1610612758</v>
+        <v>1610612759</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Sacramento Kings</t>
+          <t>San Antonio Spurs</t>
         </is>
       </c>
       <c r="D20" t="n">
         <v>1</v>
       </c>
       <c r="E20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" t="n">
         <v>0</v>
       </c>
-      <c r="F20" t="n">
-        <v>1</v>
-      </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
         <v>48</v>
       </c>
       <c r="I20" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="J20" t="n">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="K20" t="n">
-        <v>0.405</v>
+        <v>0.475</v>
       </c>
       <c r="L20" t="n">
         <v>6</v>
       </c>
       <c r="M20" t="n">
+        <v>20</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="O20" t="n">
         <v>17</v>
       </c>
-      <c r="N20" t="n">
-        <v>0.353</v>
-      </c>
-      <c r="O20" t="n">
+      <c r="P20" t="n">
+        <v>26</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.654</v>
+      </c>
+      <c r="R20" t="n">
+        <v>10</v>
+      </c>
+      <c r="S20" t="n">
+        <v>33</v>
+      </c>
+      <c r="T20" t="n">
+        <v>43</v>
+      </c>
+      <c r="U20" t="n">
+        <v>22</v>
+      </c>
+      <c r="V20" t="n">
+        <v>16</v>
+      </c>
+      <c r="W20" t="n">
+        <v>9</v>
+      </c>
+      <c r="X20" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>20</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>99</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>7</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>8</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>14</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>9</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>14</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>7</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY20" t="n">
         <v>13</v>
       </c>
-      <c r="P20" t="n">
-        <v>16</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0.8129999999999999</v>
-      </c>
-      <c r="R20" t="n">
+      <c r="AZ20" t="n">
         <v>11</v>
       </c>
-      <c r="S20" t="n">
-        <v>29</v>
-      </c>
-      <c r="T20" t="n">
-        <v>40</v>
-      </c>
-      <c r="U20" t="n">
+      <c r="BA20" t="n">
         <v>14</v>
       </c>
-      <c r="V20" t="n">
-        <v>21</v>
-      </c>
-      <c r="W20" t="n">
-        <v>10</v>
-      </c>
-      <c r="X20" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>87</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>-6</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>4</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>14</v>
-      </c>
-      <c r="AJ20" t="n">
+      <c r="BB20" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC20" t="n">
         <v>9</v>
       </c>
-      <c r="AK20" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>9</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>10</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>11</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>20</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>6</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>13</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>18</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>17</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>23</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>19</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>8</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>11</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>23</v>
-      </c>
-      <c r="BA20" t="n">
-        <v>18</v>
-      </c>
-      <c r="BB20" t="n">
-        <v>17</v>
-      </c>
-      <c r="BC20" t="n">
-        <v>17</v>
-      </c>
       <c r="BD20" t="n">
         <v>10</v>
       </c>
       <c r="BE20" t="inlineStr">
         <is>
-          <t>Sacramento Kings</t>
+          <t>San Antonio Spurs</t>
         </is>
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>11-1-2012-13</t>
+          <t>2012-11-01</t>
         </is>
       </c>
     </row>
@@ -4116,180 +4183,180 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1610612759</v>
+        <v>1610612761</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>San Antonio Spurs</t>
+          <t>Toronto Raptors</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" t="n">
         <v>0</v>
-      </c>
-      <c r="G21" t="n">
-        <v>1</v>
       </c>
       <c r="H21" t="n">
         <v>48</v>
       </c>
       <c r="I21" t="n">
-        <v>36.5</v>
+        <v>33</v>
       </c>
       <c r="J21" t="n">
-        <v>79.5</v>
+        <v>91</v>
       </c>
       <c r="K21" t="n">
-        <v>0.459</v>
+        <v>0.363</v>
       </c>
       <c r="L21" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M21" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="N21" t="n">
-        <v>0.282</v>
+        <v>0.353</v>
       </c>
       <c r="O21" t="n">
+        <v>16</v>
+      </c>
+      <c r="P21" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.842</v>
+      </c>
+      <c r="R21" t="n">
+        <v>15</v>
+      </c>
+      <c r="S21" t="n">
+        <v>27</v>
+      </c>
+      <c r="T21" t="n">
+        <v>42</v>
+      </c>
+      <c r="U21" t="n">
+        <v>18</v>
+      </c>
+      <c r="V21" t="n">
+        <v>10</v>
+      </c>
+      <c r="W21" t="n">
+        <v>12</v>
+      </c>
+      <c r="X21" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>16</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>88</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>20</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>8</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>16</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>7</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>18</v>
+      </c>
+      <c r="AT21" t="n">
         <v>14</v>
       </c>
-      <c r="P21" t="n">
-        <v>21</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0.667</v>
-      </c>
-      <c r="R21" t="n">
-        <v>8</v>
-      </c>
-      <c r="S21" t="n">
-        <v>33</v>
-      </c>
-      <c r="T21" t="n">
-        <v>41</v>
-      </c>
-      <c r="U21" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="V21" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="W21" t="n">
-        <v>9</v>
-      </c>
-      <c r="X21" t="n">
-        <v>6</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA21" t="n">
+      <c r="AU21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA21" t="n">
         <v>20</v>
       </c>
-      <c r="AB21" t="n">
-        <v>92.5</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>8</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>14</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>7</v>
-      </c>
-      <c r="AN21" t="n">
+      <c r="BB21" t="n">
         <v>16</v>
       </c>
-      <c r="AO21" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>20</v>
-      </c>
-      <c r="AR21" t="n">
-        <v>20</v>
-      </c>
-      <c r="AS21" t="n">
-        <v>8</v>
-      </c>
-      <c r="AT21" t="n">
-        <v>15</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>6</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>7</v>
-      </c>
-      <c r="AW21" t="n">
+      <c r="BC21" t="n">
         <v>12</v>
       </c>
-      <c r="AX21" t="n">
-        <v>9</v>
-      </c>
-      <c r="AY21" t="n">
-        <v>14</v>
-      </c>
-      <c r="AZ21" t="n">
-        <v>12</v>
-      </c>
-      <c r="BA21" t="n">
-        <v>15</v>
-      </c>
-      <c r="BB21" t="n">
-        <v>13</v>
-      </c>
-      <c r="BC21" t="n">
-        <v>9</v>
-      </c>
       <c r="BD21" t="n">
         <v>10</v>
       </c>
       <c r="BE21" t="inlineStr">
         <is>
-          <t>San Antonio Spurs</t>
+          <t>Toronto Raptors</t>
         </is>
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>11-1-2012-13</t>
+          <t>2012-11-01</t>
         </is>
       </c>
     </row>
@@ -4298,180 +4365,180 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1610612761</v>
+        <v>1610612762</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Toronto Raptors</t>
+          <t>Utah Jazz</t>
         </is>
       </c>
       <c r="D22" t="n">
         <v>1</v>
       </c>
       <c r="E22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" t="n">
         <v>0</v>
       </c>
-      <c r="F22" t="n">
-        <v>1</v>
-      </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
         <v>48</v>
       </c>
       <c r="I22" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="J22" t="n">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K22" t="n">
-        <v>0.363</v>
+        <v>0.427</v>
       </c>
       <c r="L22" t="n">
         <v>6</v>
       </c>
       <c r="M22" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="N22" t="n">
-        <v>0.353</v>
+        <v>0.429</v>
       </c>
       <c r="O22" t="n">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="P22" t="n">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.842</v>
+        <v>0.738</v>
       </c>
       <c r="R22" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="S22" t="n">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="T22" t="n">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="U22" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="V22" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="W22" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="X22" t="n">
         <v>8</v>
       </c>
       <c r="Y22" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="Z22" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>113</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>12</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>8</v>
+      </c>
+      <c r="AM22" t="n">
         <v>18</v>
       </c>
-      <c r="AA22" t="n">
-        <v>16</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>88</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>-2</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>4</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>9</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>10</v>
-      </c>
       <c r="AN22" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AO22" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="AP22" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="AQ22" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="AR22" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AS22" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="AT22" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="AU22" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="AV22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AW22" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AX22" t="n">
         <v>7</v>
       </c>
       <c r="AY22" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="AZ22" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="BA22" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="BB22" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="BC22" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
       </c>
       <c r="BE22" t="inlineStr">
         <is>
-          <t>Toronto Raptors</t>
+          <t>Utah Jazz</t>
         </is>
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>11-1-2012-13</t>
+          <t>2012-11-01</t>
         </is>
       </c>
     </row>
@@ -4480,362 +4547,180 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1610612762</v>
+        <v>1610612764</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Utah Jazz</t>
+          <t>Washington Wizards</t>
         </is>
       </c>
       <c r="D23" t="n">
         <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" t="n">
         <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>1</v>
       </c>
       <c r="H23" t="n">
         <v>48</v>
       </c>
       <c r="I23" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="J23" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K23" t="n">
-        <v>0.427</v>
+        <v>0.356</v>
       </c>
       <c r="L23" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M23" t="n">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="N23" t="n">
-        <v>0.429</v>
+        <v>0.25</v>
       </c>
       <c r="O23" t="n">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="P23" t="n">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.738</v>
+        <v>0.6</v>
       </c>
       <c r="R23" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="S23" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="T23" t="n">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="U23" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="V23" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="W23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X23" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Y23" t="n">
         <v>5</v>
       </c>
       <c r="Z23" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="AA23" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="AB23" t="n">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="AC23" t="n">
-        <v>19</v>
+        <v>-10</v>
       </c>
       <c r="AD23" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>20</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>17</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>20</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>18</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>18</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV23" t="n">
         <v>4</v>
       </c>
-      <c r="AE23" t="n">
-        <v>2</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI23" t="n">
+      <c r="AW23" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ23" t="n">
         <v>5</v>
       </c>
-      <c r="AJ23" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK23" t="n">
+      <c r="BA23" t="n">
         <v>12</v>
       </c>
-      <c r="AL23" t="n">
-        <v>9</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>19</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>6</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>15</v>
-      </c>
-      <c r="AR23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU23" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV23" t="n">
-        <v>5</v>
-      </c>
-      <c r="AW23" t="n">
-        <v>8</v>
-      </c>
-      <c r="AX23" t="n">
-        <v>7</v>
-      </c>
-      <c r="AY23" t="n">
-        <v>8</v>
-      </c>
-      <c r="AZ23" t="n">
-        <v>18</v>
-      </c>
-      <c r="BA23" t="n">
-        <v>1</v>
-      </c>
       <c r="BB23" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="BC23" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
       </c>
       <c r="BE23" t="inlineStr">
         <is>
-          <t>Utah Jazz</t>
+          <t>Washington Wizards</t>
         </is>
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>11-1-2012-13</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>1610612764</v>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Washington Wizards</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>1</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>1</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>48</v>
-      </c>
-      <c r="I24" t="n">
-        <v>32</v>
-      </c>
-      <c r="J24" t="n">
-        <v>90</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.356</v>
-      </c>
-      <c r="L24" t="n">
-        <v>8</v>
-      </c>
-      <c r="M24" t="n">
-        <v>32</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="O24" t="n">
-        <v>12</v>
-      </c>
-      <c r="P24" t="n">
-        <v>20</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="R24" t="n">
-        <v>18</v>
-      </c>
-      <c r="S24" t="n">
-        <v>21</v>
-      </c>
-      <c r="T24" t="n">
-        <v>39</v>
-      </c>
-      <c r="U24" t="n">
-        <v>26</v>
-      </c>
-      <c r="V24" t="n">
-        <v>13</v>
-      </c>
-      <c r="W24" t="n">
-        <v>11</v>
-      </c>
-      <c r="X24" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>84</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>-10</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>4</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>20</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>22</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>3</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>18</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP24" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>22</v>
-      </c>
-      <c r="AR24" t="n">
-        <v>2</v>
-      </c>
-      <c r="AS24" t="n">
-        <v>22</v>
-      </c>
-      <c r="AT24" t="n">
-        <v>19</v>
-      </c>
-      <c r="AU24" t="n">
-        <v>2</v>
-      </c>
-      <c r="AV24" t="n">
-        <v>4</v>
-      </c>
-      <c r="AW24" t="n">
-        <v>7</v>
-      </c>
-      <c r="AX24" t="n">
-        <v>3</v>
-      </c>
-      <c r="AY24" t="n">
-        <v>8</v>
-      </c>
-      <c r="AZ24" t="n">
-        <v>5</v>
-      </c>
-      <c r="BA24" t="n">
-        <v>12</v>
-      </c>
-      <c r="BB24" t="n">
-        <v>20</v>
-      </c>
-      <c r="BC24" t="n">
-        <v>22</v>
-      </c>
-      <c r="BD24" t="n">
-        <v>10</v>
-      </c>
-      <c r="BE24" t="inlineStr">
-        <is>
-          <t>Washington Wizards</t>
-        </is>
-      </c>
-      <c r="BF24" t="inlineStr">
-        <is>
-          <t>11-1-2012-13</t>
+          <t>2012-11-01</t>
         </is>
       </c>
     </row>
